--- a/Checklist_Mikrotik1.xlsx
+++ b/Checklist_Mikrotik1.xlsx
@@ -23,9 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
-  <si>
-    <t xml:space="preserve">Mikrotik Чеклист</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+  <si>
+    <t xml:space="preserve">Config point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code</t>
   </si>
   <si>
     <t xml:space="preserve">Обновить версию RouterOS</t>
@@ -277,7 +280,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -299,12 +302,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -392,7 +389,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -401,7 +398,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -421,10 +418,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -437,11 +430,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -528,24 +521,26 @@
   </sheetPr>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.21"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -553,10 +548,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -571,10 +566,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -589,10 +584,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -607,10 +602,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -625,10 +620,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -636,7 +631,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -644,7 +639,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -659,10 +654,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -677,10 +672,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -695,10 +690,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -713,10 +708,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -730,31 +725,31 @@
       <c r="A22" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>21</v>
+      <c r="B22" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" s="8" customFormat="true" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" s="7" customFormat="true" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -765,10 +760,10 @@
         <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1"/>
     </row>
@@ -783,10 +778,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -801,10 +796,10 @@
         <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30" s="1"/>
     </row>
@@ -815,20 +810,20 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="n">
+      <c r="A32" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="9"/>
+      <c r="C32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -859,100 +854,100 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9" t="s">
-        <v>34</v>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
+      <c r="A2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="30.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>38</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>40</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
+      <c r="A5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
+      <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
+      <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -976,11 +971,11 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.15"/>
   </cols>
   <sheetData>
@@ -991,75 +986,75 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>31</v>
+      <c r="B2" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>49</v>
+      <c r="B4" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>50</v>
+      <c r="B6" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>51</v>
+      <c r="B8" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>52</v>
+      <c r="B10" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1164,11 +1159,11 @@
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.15"/>
   </cols>
   <sheetData>
@@ -1179,66 +1174,66 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>

--- a/Checklist_Mikrotik1.xlsx
+++ b/Checklist_Mikrotik1.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Базовая" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Firewall" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Дополнительно" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="CAPsMan" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="APconfig" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Firewall" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Дополнительно" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="CAPsMan" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t xml:space="preserve">Config point</t>
   </si>
@@ -130,6 +131,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/system identity set name=WhiteSlave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/interface bridge                                                                          add name=Bridge-generalS                                        /interface bridge port                                                                  add bridge=Bridge-generalM interface=wlan_2GHz      add bridge=Bridge-generalM interface=ether1               add bridge=Bridge-generalM interface=ether2               add bridge=Bridge-generalM interface=ether3              add bridge=Bridge-generalM interface=ether4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Настроить dhcp-client для бриджа или назначить  IP-адрес из подсети к которой подключаемся</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ip dhcp-client                                                                            add disabled=no interface=Bridge-generalS                             /ip address                                                                                    add address=192.168.10.201/24 interface=Bridge-generalM network=192.168.10.0</t>
   </si>
   <si>
     <t xml:space="preserve">/ip firewall filter</t>
@@ -521,11 +534,11 @@
   </sheetPr>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.28"/>
@@ -848,13 +861,217 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:D1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.21"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="101.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="76.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="150" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.98"/>
@@ -865,7 +1082,7 @@
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -873,10 +1090,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -884,10 +1101,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -895,10 +1112,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -906,10 +1123,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -917,10 +1134,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,10 +1145,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -939,203 +1156,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.15"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1156,10 +1185,10 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.57"/>
@@ -1177,6 +1206,194 @@
       <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.15"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="B2" s="8"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>

--- a/Checklist_Mikrotik1.xlsx
+++ b/Checklist_Mikrotik1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Базовая" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="Firewall" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Дополнительно" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="CAPsMan" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="PPPoE-Server" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t xml:space="preserve">Config point</t>
   </si>
@@ -98,7 +99,7 @@
     <t xml:space="preserve">/ip pool add name=DHCP-pool ranges=192.168.10.10-192.168.10.200 </t>
   </si>
   <si>
-    <t xml:space="preserve">/ip dhcp-server add address-pool=DHCP-pool disabled=no interface=Bridge-generalM lease-time=\     1d name=DHCP-server1</t>
+    <t xml:space="preserve">/ip dhcp-server add address-pool=DHCP-pool disabled=no interface=Bridge-generalM lease-time=1d name=DHCP-server1</t>
   </si>
   <si>
     <t xml:space="preserve">/ip dhcp-server network add address=192.168.10.0/24 dns-server=192.168.10.1 gateway=192.168.10.1 \     netmask=24</t>
@@ -156,7 +157,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Разрешаем новые входящие соединения для изменённых портов</t>
     </r>
@@ -166,7 +166,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> SSH </t>
     </r>
@@ -183,7 +182,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">То-же для</t>
     </r>
@@ -193,7 +191,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Winbox</t>
     </r>
@@ -210,7 +207,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">То-же для</t>
     </r>
@@ -220,7 +216,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> DNS трафик из локальной сети (второй контур безопасности)</t>
     </r>
@@ -237,7 +232,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">То-же для</t>
     </r>
@@ -247,7 +241,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> HTTP трафик из локальной сети (второй контур безопасности) </t>
     </r>
@@ -284,6 +277,42 @@
   </si>
   <si>
     <t xml:space="preserve">Гостевая сеть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На сервере</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создаем профиль.                                                                                 PPP – Profiles                                                                               Задаем понятное имя профиля                                              Local Address – 172.16.25.1                                                       Remote Address –172.16.25.2(либо  пул адресов)                DNS –  например 8.8.8.8                                                       Change TCP MSS – yes                                                                    Use UPnP – no                                                                                             Protocols
+Use MPLS – no
+Use Compression – no                                                                   Use Encryption – yes                                                                                Limits
+Only One – no.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ppp profile                                                                             add change-tcp-mss=yes dns-server=8.8.8.8 local-address=172.16.30.1 name=profile1 only-one=no remote-address=172.16.30.2 use-compression=no     use-encryption=yes use-mpls=no use-upnp=no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создание пользователей                                                                  PPP – Secrets                                                                                        Name – учетная запись
+Password – пароль
+Service – можно выбрать any или конкретные сервисы
+Profile – раннее созданный профиль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ppp secret                                                                               add name=White password=***** profile=profile1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Включение сервера                                                                   Service Name — указываем уникальное имя сервиса Interface – на каком интерфейсесоздаем сервис      Default profile – раннее созданный профиль                    One Session Peer Host – ставим галочку                     Authentication – оставляем только MSCHAPv1 и MSCHAPv2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/interface pppoe-server server                                           add authentication=mschap1,mschap2               default-profile=profile1 disabled=no     interface=ether5 one-session-per-host=yes        service-name=forWhite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На клиенте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPP – Interface                                                                                  Name – понятное название интерфейса                    Interface – интерфейс, который подключен к серверу  Service – имя сервиса на сервере (можно не указывать)     AC Name – имя устр. сервера (можно не указывать)     User – учетн запись на сервере – обязат.  параметр     Password – пароль у на сервере -обязат параметр       Use Peer DNS – ставим галочку                                                 Allow – снимаем галочки с chap и pap.</t>
   </si>
 </sst>
 </file>
@@ -293,13 +322,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -323,7 +351,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -340,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -376,6 +410,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -402,7 +443,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -453,6 +494,38 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -532,17 +605,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.21"/>
   </cols>
   <sheetData>
@@ -610,7 +683,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>4</v>
       </c>
@@ -662,7 +735,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>6</v>
       </c>
@@ -698,7 +771,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>8</v>
       </c>
@@ -716,7 +789,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>9</v>
       </c>
@@ -746,7 +819,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
@@ -754,7 +827,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1" t="s">
@@ -762,13 +835,73 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" s="7" customFormat="true" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
+      <c r="AP25" s="7"/>
+      <c r="AQ25" s="7"/>
+      <c r="AR25" s="7"/>
+      <c r="AS25" s="7"/>
+      <c r="AT25" s="7"/>
+      <c r="AU25" s="7"/>
+      <c r="AV25" s="7"/>
+      <c r="AW25" s="7"/>
+      <c r="AX25" s="7"/>
+      <c r="AY25" s="7"/>
+      <c r="AZ25" s="7"/>
+      <c r="BA25" s="7"/>
+      <c r="BB25" s="7"/>
+      <c r="BC25" s="7"/>
+      <c r="BD25" s="7"/>
+      <c r="BE25" s="7"/>
+      <c r="BF25" s="7"/>
+      <c r="BG25" s="7"/>
+      <c r="BH25" s="7"/>
+      <c r="BI25" s="7"/>
+      <c r="BJ25" s="7"/>
+      <c r="BK25" s="7"/>
+      <c r="BL25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>11</v>
       </c>
@@ -834,7 +967,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
         <v>34</v>
       </c>
@@ -861,18 +994,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="5" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1029,26 +1163,11 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1071,14 +1190,15 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="4" style="0" width="11.63"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8" t="s">
@@ -1107,7 +1227,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
@@ -1129,7 +1249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
@@ -1140,7 +1260,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
@@ -1151,7 +1271,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
@@ -1162,7 +1282,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
     </row>
@@ -1188,21 +1308,22 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="5" style="0" width="11.63"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
@@ -1212,13 +1333,13 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
         <v>2</v>
       </c>
@@ -1228,13 +1349,13 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
         <v>3</v>
       </c>
@@ -1244,13 +1365,13 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>4</v>
       </c>
@@ -1260,13 +1381,13 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
         <v>5</v>
       </c>
@@ -1276,79 +1397,79 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1376,21 +1497,22 @@
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="5" style="0" width="11.63"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
@@ -1398,13 +1520,13 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
         <v>2</v>
       </c>
@@ -1412,13 +1534,13 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
         <v>3</v>
       </c>
@@ -1426,13 +1548,13 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>4</v>
       </c>
@@ -1440,13 +1562,13 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
         <v>5</v>
       </c>
@@ -1454,84 +1576,215 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.15"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="169.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="15"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="73.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="87.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" customFormat="false" ht="108.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
